--- a/ControlPanel/src/main/java/resources/TestData1.xlsx
+++ b/ControlPanel/src/main/java/resources/TestData1.xlsx
@@ -16,10 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
-  <si>
-    <t>S.No</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Data1</t>
   </si>
@@ -449,155 +446,126 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection sqref="A1:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
         <v>11</v>
       </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C10" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
